--- a/app/Licenciatura_em_Historia_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Historia_Pos_Laboral.xlsx
@@ -12,41 +12,40 @@
     <sheet name="20153096" sheetId="2" r:id="rId5"/>
     <sheet name="20153126" sheetId="3" r:id="rId6"/>
     <sheet name="20153121" sheetId="4" r:id="rId7"/>
-    <sheet name="20154465" sheetId="5" r:id="rId8"/>
-    <sheet name="20153111" sheetId="6" r:id="rId9"/>
-    <sheet name="20153092" sheetId="7" r:id="rId10"/>
-    <sheet name="20153099" sheetId="8" r:id="rId11"/>
-    <sheet name="20153114" sheetId="9" r:id="rId12"/>
-    <sheet name="20153117" sheetId="10" r:id="rId13"/>
-    <sheet name="20153125" sheetId="11" r:id="rId14"/>
-    <sheet name="20153120" sheetId="12" r:id="rId15"/>
-    <sheet name="20153113" sheetId="13" r:id="rId16"/>
-    <sheet name="20153122" sheetId="14" r:id="rId17"/>
-    <sheet name="20153112" sheetId="15" r:id="rId18"/>
-    <sheet name="20153110" sheetId="16" r:id="rId19"/>
-    <sheet name="20153119" sheetId="17" r:id="rId20"/>
-    <sheet name="20153108" sheetId="18" r:id="rId21"/>
-    <sheet name="20153102" sheetId="19" r:id="rId22"/>
-    <sheet name="20153093" sheetId="20" r:id="rId23"/>
-    <sheet name="20153098" sheetId="21" r:id="rId24"/>
-    <sheet name="20153118" sheetId="22" r:id="rId25"/>
-    <sheet name="20153123" sheetId="23" r:id="rId26"/>
-    <sheet name="20153095" sheetId="24" r:id="rId27"/>
-    <sheet name="20153124" sheetId="25" r:id="rId28"/>
-    <sheet name="20153101" sheetId="26" r:id="rId29"/>
-    <sheet name="20153105" sheetId="27" r:id="rId30"/>
-    <sheet name="20153097" sheetId="28" r:id="rId31"/>
-    <sheet name="20153094" sheetId="29" r:id="rId32"/>
-    <sheet name="20153106" sheetId="30" r:id="rId33"/>
-    <sheet name="20153115" sheetId="31" r:id="rId34"/>
-    <sheet name="20153100" sheetId="32" r:id="rId35"/>
-    <sheet name="20153103" sheetId="33" r:id="rId36"/>
-    <sheet name="20153107" sheetId="34" r:id="rId37"/>
-    <sheet name="20153104" sheetId="35" r:id="rId38"/>
-    <sheet name="20153109" sheetId="36" r:id="rId39"/>
-    <sheet name="20153116" sheetId="37" r:id="rId40"/>
-    <sheet name="Sheet2" sheetId="38" r:id="rId41"/>
-    <sheet name="Sheet3" sheetId="39" r:id="rId42"/>
+    <sheet name="20153111" sheetId="5" r:id="rId8"/>
+    <sheet name="20153092" sheetId="6" r:id="rId9"/>
+    <sheet name="20153099" sheetId="7" r:id="rId10"/>
+    <sheet name="20153114" sheetId="8" r:id="rId11"/>
+    <sheet name="20153117" sheetId="9" r:id="rId12"/>
+    <sheet name="20153125" sheetId="10" r:id="rId13"/>
+    <sheet name="20153120" sheetId="11" r:id="rId14"/>
+    <sheet name="20153113" sheetId="12" r:id="rId15"/>
+    <sheet name="20153122" sheetId="13" r:id="rId16"/>
+    <sheet name="20153112" sheetId="14" r:id="rId17"/>
+    <sheet name="20153110" sheetId="15" r:id="rId18"/>
+    <sheet name="20153119" sheetId="16" r:id="rId19"/>
+    <sheet name="20153108" sheetId="17" r:id="rId20"/>
+    <sheet name="20153102" sheetId="18" r:id="rId21"/>
+    <sheet name="20153093" sheetId="19" r:id="rId22"/>
+    <sheet name="20153098" sheetId="20" r:id="rId23"/>
+    <sheet name="20153118" sheetId="21" r:id="rId24"/>
+    <sheet name="20153123" sheetId="22" r:id="rId25"/>
+    <sheet name="20153095" sheetId="23" r:id="rId26"/>
+    <sheet name="20153124" sheetId="24" r:id="rId27"/>
+    <sheet name="20153101" sheetId="25" r:id="rId28"/>
+    <sheet name="20153105" sheetId="26" r:id="rId29"/>
+    <sheet name="20153097" sheetId="27" r:id="rId30"/>
+    <sheet name="20153094" sheetId="28" r:id="rId31"/>
+    <sheet name="20153106" sheetId="29" r:id="rId32"/>
+    <sheet name="20153115" sheetId="30" r:id="rId33"/>
+    <sheet name="20153100" sheetId="31" r:id="rId34"/>
+    <sheet name="20153103" sheetId="32" r:id="rId35"/>
+    <sheet name="20153107" sheetId="33" r:id="rId36"/>
+    <sheet name="20153104" sheetId="34" r:id="rId37"/>
+    <sheet name="20153109" sheetId="35" r:id="rId38"/>
+    <sheet name="20153116" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -203,9 +202,6 @@
     <t>Helena Ecuassune</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -242,9 +238,6 @@
     <t xml:space="preserve">Terasa Adolfo Bento </t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Solteiro</t>
   </si>
   <si>
@@ -269,9 +262,6 @@
     <t>Luis Vumane Sitoe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -281,15 +271,6 @@
     <t>+258828441756</t>
   </si>
   <si>
-    <t>Sérgio</t>
-  </si>
-  <si>
-    <t>Alberto Basto</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Sango</t>
   </si>
   <si>
@@ -353,9 +334,6 @@
     <t>Julieta Chimone A Baloi</t>
   </si>
   <si>
-    <t>Distrito de Moamba</t>
-  </si>
-  <si>
     <t>110101424145N</t>
   </si>
   <si>
@@ -380,9 +358,6 @@
     <t xml:space="preserve">Angelina Mula </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110102090489A</t>
   </si>
   <si>
@@ -431,9 +406,6 @@
     <t>Elisa Chulacufa Tivane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -482,9 +454,6 @@
     <t>Mequelina Artur Raul</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110504165979F</t>
   </si>
   <si>
@@ -569,9 +538,6 @@
     <t>Judite Manuel Macuacua</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101478096B</t>
   </si>
   <si>
@@ -713,9 +679,6 @@
     <t>Luisa Maculo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110102299234F</t>
   </si>
   <si>
@@ -825,9 +788,6 @@
   </si>
   <si>
     <t>Candida Silvia Fernando</t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
   </si>
   <si>
     <t>100200711521F</t>
@@ -2270,7 +2230,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153117</v>
+        <v>20153125</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2373,9 +2333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2383,7 +2341,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2394,7 +2352,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2403,7 +2361,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2415,7 +2373,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2423,7 +2381,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2519,7 +2477,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2546,7 +2504,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2562,7 +2520,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2865,7 +2823,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153125</v>
+        <v>20153120</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2968,9 +2926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2978,7 +2934,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2989,7 +2945,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2998,7 +2954,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3010,7 +2966,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3018,7 +2974,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3114,7 +3070,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3141,7 +3097,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3157,7 +3113,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3460,7 +3416,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153120</v>
+        <v>20153113</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3484,7 +3440,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3500,7 +3456,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3516,7 +3472,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3532,7 +3488,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3548,7 +3504,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3563,9 +3519,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3573,7 +3527,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3584,7 +3538,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3593,7 +3547,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3605,7 +3559,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3613,7 +3567,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3709,7 +3663,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3736,7 +3690,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3752,7 +3706,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4055,7 +4009,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153113</v>
+        <v>20153122</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4079,7 +4033,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4095,7 +4049,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4111,7 +4065,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4127,7 +4081,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4143,7 +4097,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4158,9 +4112,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4168,7 +4120,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4179,7 +4131,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4188,7 +4140,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4200,15 +4152,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>143</v>
+      <c r="H17" s="20">
+        <v>3567089</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4304,7 +4256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4331,7 +4283,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4347,7 +4299,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4650,7 +4602,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153122</v>
+        <v>20153112</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4674,7 +4626,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4690,7 +4642,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4706,7 +4658,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4722,7 +4674,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4738,7 +4690,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4753,9 +4705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4763,7 +4713,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4774,7 +4724,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4783,7 +4733,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4795,15 +4745,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3567089</v>
+      <c r="H17" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4899,7 +4849,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4942,7 +4892,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5245,7 +5195,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153112</v>
+        <v>20153110</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5269,7 +5219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5285,7 +5235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5301,7 +5251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5317,7 +5267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5333,7 +5283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5348,9 +5298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5358,7 +5306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5369,7 +5317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5378,7 +5326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5390,7 +5338,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5398,7 +5346,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5494,7 +5442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5521,7 +5469,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5537,7 +5485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5840,7 +5788,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153110</v>
+        <v>20153119</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5864,7 +5812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5880,7 +5828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5896,7 +5844,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5912,7 +5860,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5928,7 +5876,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5943,9 +5891,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5953,7 +5899,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5964,7 +5910,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5973,7 +5919,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5985,7 +5931,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5993,7 +5939,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6089,7 +6035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6116,7 +6062,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6132,7 +6078,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6435,7 +6381,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153119</v>
+        <v>20153108</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6459,7 +6405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6475,7 +6421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6491,7 +6437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6507,7 +6453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6523,7 +6469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6538,9 +6484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>171</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6548,7 +6492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6559,7 +6503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6568,7 +6512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6580,7 +6524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6588,7 +6532,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6684,7 +6628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6711,7 +6655,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6727,7 +6671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7030,7 +6974,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153108</v>
+        <v>20153102</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7054,7 +6998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7070,7 +7014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7086,7 +7030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7102,7 +7046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7118,7 +7062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7133,9 +7077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7143,7 +7085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7154,7 +7096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7163,7 +7105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7175,7 +7117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7183,7 +7125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7279,7 +7221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7306,7 +7248,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7322,7 +7264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7625,7 +7567,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153102</v>
+        <v>20153093</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7649,7 +7591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7665,7 +7607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7681,7 +7623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7697,7 +7639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7713,7 +7655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7728,9 +7670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7738,7 +7678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7749,7 +7689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7758,7 +7698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7770,7 +7710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7778,7 +7718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7874,7 +7814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7901,7 +7841,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7917,7 +7857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8323,9 +8263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8333,7 +8271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8344,7 +8282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8353,7 +8291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8365,7 +8303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8373,7 +8311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8469,7 +8407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8512,7 +8450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8815,7 +8753,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153093</v>
+        <v>20153098</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8839,7 +8777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8855,7 +8793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8871,7 +8809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8887,7 +8825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8903,7 +8841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8918,9 +8856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8928,7 +8864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8939,7 +8875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8948,7 +8884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8960,7 +8896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8968,7 +8904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9064,7 +9000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9091,7 +9027,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9107,7 +9043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9410,7 +9346,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153098</v>
+        <v>20153118</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9434,7 +9370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9450,7 +9386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9466,7 +9402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9482,7 +9418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9498,7 +9434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9513,9 +9449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9523,7 +9457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9534,7 +9468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9543,7 +9477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9555,7 +9489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9563,7 +9497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9659,7 +9593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9686,7 +9620,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9702,7 +9636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10005,7 +9939,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153118</v>
+        <v>20153123</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10029,7 +9963,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10045,7 +9979,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10061,7 +9995,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10077,7 +10011,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10093,7 +10027,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10108,9 +10042,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10118,7 +10050,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10129,7 +10061,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10138,7 +10070,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10150,7 +10082,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10158,7 +10090,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10254,7 +10186,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10281,7 +10213,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10297,7 +10229,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10600,7 +10532,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153123</v>
+        <v>20153095</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10624,7 +10556,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10640,7 +10572,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10656,7 +10588,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10672,7 +10604,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10688,7 +10620,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10703,9 +10635,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10713,7 +10643,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10724,7 +10654,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10733,7 +10663,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10745,7 +10675,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10753,7 +10683,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10849,7 +10779,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10876,7 +10806,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10892,7 +10822,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11195,7 +11125,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153095</v>
+        <v>20153124</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11219,7 +11149,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11235,7 +11165,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11251,7 +11181,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11267,7 +11197,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11283,7 +11213,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11298,9 +11228,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11308,7 +11236,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11319,7 +11247,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11328,7 +11256,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11340,7 +11268,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11348,7 +11276,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11444,7 +11372,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11471,7 +11399,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11487,7 +11415,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11790,7 +11718,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153124</v>
+        <v>20153101</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11814,7 +11742,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11830,7 +11758,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11846,7 +11774,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11862,7 +11790,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11878,7 +11806,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11893,9 +11821,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11903,7 +11829,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11914,7 +11840,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11923,7 +11849,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11935,7 +11861,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11943,7 +11869,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12039,7 +11965,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12082,7 +12008,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12385,7 +12311,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153101</v>
+        <v>20153105</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12409,7 +12335,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12425,7 +12351,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12441,7 +12367,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12457,7 +12383,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12473,7 +12399,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12488,9 +12414,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12498,7 +12422,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12509,7 +12433,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12518,7 +12442,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12530,7 +12454,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12538,7 +12462,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12634,7 +12558,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12661,7 +12585,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12677,7 +12601,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12980,7 +12904,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153105</v>
+        <v>20153097</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13004,7 +12928,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13020,7 +12944,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13036,7 +12960,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13052,7 +12976,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13068,7 +12992,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13083,9 +13007,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13093,7 +13015,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13104,7 +13026,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13113,7 +13035,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13125,7 +13047,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13133,7 +13055,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13229,7 +13151,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13256,7 +13178,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13272,7 +13194,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13575,7 +13497,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153097</v>
+        <v>20153094</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13599,7 +13521,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13615,7 +13537,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13631,7 +13553,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13647,7 +13569,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13663,7 +13585,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13678,9 +13600,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>257</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13688,7 +13608,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13699,7 +13619,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13708,7 +13628,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13720,7 +13640,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13728,7 +13648,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13824,7 +13744,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13851,7 +13771,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13867,7 +13787,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14170,7 +14090,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153094</v>
+        <v>20153106</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14194,7 +14114,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14210,7 +14130,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14226,7 +14146,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14242,7 +14162,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14258,7 +14178,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14273,9 +14193,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14283,7 +14201,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14294,7 +14212,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14303,7 +14221,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14315,7 +14233,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14323,7 +14241,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14419,7 +14337,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14446,7 +14364,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14462,7 +14380,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14789,7 +14707,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14805,7 +14723,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14821,7 +14739,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14837,7 +14755,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14853,7 +14771,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14868,9 +14786,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14878,7 +14794,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14889,7 +14805,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14898,7 +14814,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14910,7 +14826,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14918,7 +14834,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15014,7 +14930,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15057,7 +14973,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15360,7 +15276,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153106</v>
+        <v>20153115</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15384,7 +15300,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15400,7 +15316,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15416,7 +15332,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15432,7 +15348,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15448,7 +15364,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15463,9 +15379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15473,7 +15387,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15484,7 +15398,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15493,7 +15407,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15505,7 +15419,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15513,7 +15427,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15609,7 +15523,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15636,7 +15550,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15652,7 +15566,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15955,7 +15869,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153115</v>
+        <v>20153100</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15979,7 +15893,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15995,7 +15909,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16011,7 +15925,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16027,7 +15941,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16043,7 +15957,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16058,9 +15972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16068,7 +15980,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16079,7 +15991,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16088,7 +16000,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16100,7 +16012,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16108,7 +16020,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16204,7 +16116,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16231,7 +16143,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16247,7 +16159,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16550,7 +16462,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153100</v>
+        <v>20153103</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16574,7 +16486,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16590,7 +16502,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16606,7 +16518,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16622,7 +16534,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16638,7 +16550,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16653,9 +16565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16663,7 +16573,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16674,7 +16584,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16683,7 +16593,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16695,7 +16605,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16703,7 +16613,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16799,7 +16709,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16826,7 +16736,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16842,7 +16752,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17145,7 +17055,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153103</v>
+        <v>20153107</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17169,7 +17079,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17185,7 +17095,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17201,7 +17111,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17217,7 +17127,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17233,7 +17143,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17248,9 +17158,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17258,7 +17166,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17269,7 +17177,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17278,7 +17186,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17290,7 +17198,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17298,7 +17206,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17394,7 +17302,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17437,7 +17345,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17740,7 +17648,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153107</v>
+        <v>20153104</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17764,7 +17672,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17780,7 +17688,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17796,7 +17704,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17812,7 +17720,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17828,7 +17736,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17843,9 +17751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17853,7 +17759,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17864,7 +17770,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17873,7 +17779,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17885,7 +17791,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17893,7 +17799,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17989,7 +17895,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18016,7 +17922,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18032,7 +17938,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18335,7 +18241,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153104</v>
+        <v>20153109</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18359,7 +18265,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18375,7 +18281,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18391,7 +18297,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18407,7 +18313,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18423,7 +18329,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18438,9 +18344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18448,7 +18352,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18459,7 +18363,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18468,7 +18372,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18480,7 +18384,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18488,7 +18392,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18584,7 +18488,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18611,7 +18515,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18627,7 +18531,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18930,7 +18834,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153109</v>
+        <v>20153116</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18954,7 +18858,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18970,7 +18874,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18986,7 +18890,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19002,7 +18906,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19018,7 +18922,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19033,9 +18937,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19043,7 +18945,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19054,7 +18956,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19063,7 +18965,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19075,7 +18977,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19083,7 +18985,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19179,7 +19081,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19206,7 +19108,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19222,7 +19124,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>319</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19425,601 +19327,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153116</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2010</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -20043,7 +19350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20200,7 +19507,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20216,7 +19523,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20232,7 +19539,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20248,7 +19555,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20277,9 +19584,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20287,7 +19592,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20298,7 +19603,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20307,7 +19612,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20319,7 +19624,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20327,7 +19632,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20423,7 +19728,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20466,7 +19771,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20717,7 +20022,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20767,7 +20074,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154465</v>
+        <v>20153111</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20791,7 +20098,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20807,7 +20114,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20822,7 +20129,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20836,7 +20145,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20850,7 +20161,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20871,7 +20184,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20880,14 +20195,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20897,13 +20216,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20998,7 +20321,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21024,7 +20347,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2006</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -21038,7 +20363,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -21340,7 +20667,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153111</v>
+        <v>20153092</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21364,7 +20691,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21380,7 +20707,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21396,7 +20723,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21412,7 +20739,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21428,7 +20755,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21443,9 +20770,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21453,7 +20778,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21464,7 +20789,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21473,7 +20798,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21485,7 +20810,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21493,7 +20818,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21589,7 +20914,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21616,7 +20941,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21632,7 +20957,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21935,7 +21260,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153092</v>
+        <v>20153099</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21959,7 +21284,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21975,7 +21300,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21991,7 +21316,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22007,7 +21332,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22023,7 +21348,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22038,9 +21363,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22048,7 +21371,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22059,7 +21382,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22068,7 +21391,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22080,7 +21403,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22088,7 +21411,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22184,7 +21507,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22211,7 +21534,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22227,7 +21550,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22530,7 +21853,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153099</v>
+        <v>20153114</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22554,7 +21877,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22570,7 +21893,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22586,7 +21909,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22602,7 +21925,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22618,7 +21941,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22633,9 +21956,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22643,7 +21964,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22654,7 +21975,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22663,7 +21984,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22675,7 +21996,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22683,7 +22004,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22779,7 +22100,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22822,7 +22143,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23125,7 +22446,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153114</v>
+        <v>20153117</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23149,7 +22470,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23165,7 +22486,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23181,7 +22502,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23197,7 +22518,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23213,7 +22534,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23228,9 +22549,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23238,7 +22557,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23249,7 +22568,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23258,7 +22577,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23270,7 +22589,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23401,7 +22720,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
